--- a/FE/Excel/OTs_Table.xlsx
+++ b/FE/Excel/OTs_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -64,103 +64,130 @@
     <x:t>OT</x:t>
   </x:si>
   <x:si>
-    <x:t>18:30</x:t>
-  </x:si>
-  <x:si>
     <x:t>19:00</x:t>
   </x:si>
   <x:si>
-    <x:t>0:30</x:t>
+    <x:t>20:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accepted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SDFASF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A Nguyễn Văn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thanh Nguyễn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VHK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zsdfghdfsgsfdg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sample sample</x:t>
+  </x:si>
+  <x:si>
+    <x:t>display_web</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:10</x:t>
   </x:si>
   <x:si>
     <x:t>deny</x:t>
   </x:si>
   <x:si>
-    <x:t>Vien Thien Vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>leader1 vhec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duong Trong Nghia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vo Vien Thien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMS_Test1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no reason</x:t>
+    <x:t>rfdsqafasdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no cap</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asfdadsfasdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nhut Thanh Nguyen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Van A Nguyen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>process</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thanh dien nguyen tran</x:t>
   </x:si>
   <x:si>
     <x:t>13:15</x:t>
   </x:si>
   <x:si>
-    <x:t>13:28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accepted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tran Thanh Dien Nguyen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Tran Thanh Dien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMS_Test2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lang Khoa Tran</x:t>
-  </x:si>
-  <x:si>
-    <x:t>leader2 vhec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tran Lang Khoa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>helllo</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>No OT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>display_web</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Nhut Thanh</x:t>
+    <x:t>13:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fbhjkdashfjkldsah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dasfdasfgfscvgdfsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lead lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>van vinh cao</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -549,7 +576,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O8"/>
+  <x:dimension ref="A1:O9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -562,13 +589,13 @@
     <x:col min="5" max="5" width="6.650625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.320625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="9.600625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="22.890625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="12.750625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="17.780625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="13.820625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="15.110625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="18.240625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.820625" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="15.110625" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="10.320625" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="22.890625" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="7.510625" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="21.810625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="12.460625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -621,13 +648,13 @@
     </x:row>
     <x:row r="2" spans="1:15">
       <x:c r="A2" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="2">
-        <x:v>44977</x:v>
+        <x:v>44940</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
         <x:v>16</x:v>
@@ -648,156 +675,154 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="J2" s="3">
-        <x:v>44973.3659387731</x:v>
+        <x:v>44939.2095024653</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L2" s="3">
+        <x:v>44939.259598044</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s"/>
+      <x:c r="N2" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L2" s="3">
-        <x:v>44973.4126586458</x:v>
-      </x:c>
-      <x:c r="M2" s="1" t="s">
+      <x:c r="O2" s="1" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="N2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:15">
       <x:c r="A3" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="2">
-        <x:v>44975</x:v>
+        <x:v>44973</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>27</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J3" s="3">
-        <x:v>44973.3053967477</x:v>
+        <x:v>44972.1039798727</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L3" s="3">
+        <x:v>44972.1529856482</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="s"/>
+      <x:c r="N3" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L3" s="3">
-        <x:v>44973.314972963</x:v>
-      </x:c>
-      <x:c r="M3" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="N3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="O3" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15">
       <x:c r="A4" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="2">
-        <x:v>44974</x:v>
+        <x:v>44973</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J4" s="3">
-        <x:v>44973.2813518403</x:v>
+        <x:v>44972.1017392014</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L4" s="3">
+        <x:v>44972.1531336343</x:v>
+      </x:c>
+      <x:c r="M4" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="N4" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L4" s="3">
-        <x:v>44973.3129433912</x:v>
-      </x:c>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="O4" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:15">
       <x:c r="A5" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="2">
-        <x:v>44976</x:v>
+        <x:v>44973</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J5" s="3">
-        <x:v>44973.3086079167</x:v>
+        <x:v>44972.0927470139</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L5" s="3">
-        <x:v>44973.4125251968</x:v>
+        <x:v>44972.1531846065</x:v>
       </x:c>
       <x:c r="M5" s="1" t="s"/>
       <x:c r="N5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="O5" s="1" t="s">
         <x:v>36</x:v>
@@ -805,99 +830,97 @@
     </x:row>
     <x:row r="6" spans="1:15">
       <x:c r="A6" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="2">
-        <x:v>44974</x:v>
+        <x:v>44942</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J6" s="3">
-        <x:v>44973.2818355787</x:v>
+        <x:v>44939.2610201273</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L6" s="3">
-        <x:v>44973.3106051273</x:v>
+        <x:v>44972.1870950926</x:v>
       </x:c>
       <x:c r="M6" s="1" t="s"/>
       <x:c r="N6" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O6" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15">
       <x:c r="A7" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="2">
-        <x:v>44974</x:v>
+        <x:v>45000</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J7" s="3">
+        <x:v>44939.2534835532</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L7" s="3">
+        <x:v>44972.1872499306</x:v>
+      </x:c>
+      <x:c r="M7" s="1" t="s"/>
+      <x:c r="N7" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O7" s="1" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J7" s="3">
-        <x:v>44973.2021230208</x:v>
-      </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="L7" s="3">
-        <x:v>44973.2126195139</x:v>
-      </x:c>
-      <x:c r="M7" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="N7" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="O7" s="1" t="s">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:15">
       <x:c r="A8" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>15</x:v>
@@ -906,38 +929,83 @@
         <x:v>44974</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J8" s="3">
-        <x:v>44973.2024478704</x:v>
+        <x:v>44972.0906821296</x:v>
       </x:c>
       <x:c r="K8" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L8" s="3">
-        <x:v>44973.2125565162</x:v>
+        <x:v>44972.1883543403</x:v>
       </x:c>
       <x:c r="M8" s="1" t="s"/>
       <x:c r="N8" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O8" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:15">
+      <x:c r="A9" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="2">
+        <x:v>44974</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="O8" s="1" t="s">
-        <x:v>47</x:v>
+      <x:c r="H9" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J9" s="3">
+        <x:v>44972.3166637731</x:v>
+      </x:c>
+      <x:c r="K9" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L9" s="3">
+        <x:v>44972.316818287</x:v>
+      </x:c>
+      <x:c r="M9" s="1" t="s"/>
+      <x:c r="N9" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="O9" s="1" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FE/Excel/OTs_Table.xlsx
+++ b/FE/Excel/OTs_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -64,130 +64,103 @@
     <x:t>OT</x:t>
   </x:si>
   <x:si>
+    <x:t>13:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lang Khoa Tran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>leader2 vhec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duong Trong Nghia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tran Lang Khoa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMS_Test2</x:t>
+  </x:si>
+  <x:si>
     <x:t>19:00</x:t>
   </x:si>
   <x:si>
-    <x:t>20:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:30</x:t>
+    <x:t>19:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:30</x:t>
   </x:si>
   <x:si>
     <x:t>accepted</x:t>
   </x:si>
   <x:si>
-    <x:t>SDFASF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A Nguyễn Văn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thanh Nguyễn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VHK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zsdfghdfsgsfdg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sample sample</x:t>
-  </x:si>
-  <x:si>
-    <x:t>display_web</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:10</x:t>
+    <x:t>dasfdasf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>leader1 vhec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hello</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thanh dien nguyen tran</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>process</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dasfdsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cao Van Vinh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vien Thien Vo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vo Vien Thien</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dafdasf</x:t>
   </x:si>
   <x:si>
     <x:t>deny</x:t>
   </x:si>
   <x:si>
-    <x:t>rfdsqafasdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no cap</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asfdadsfasdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nhut Thanh Nguyen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Van A Nguyen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>process</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thanh dien nguyen tran</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fbhjkdashfjkldsah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dasfdasfgfscvgdfsg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lead lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>van vinh cao</x:t>
+    <x:t>LGTT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no reason</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyen Tran Thanh Dien</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -576,7 +549,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O9"/>
+  <x:dimension ref="A1:O8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -589,14 +562,14 @@
     <x:col min="5" max="5" width="6.650625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.320625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="9.600625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="17.780625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="13.820625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.910625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="12.750625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="15.110625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.820625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.240625" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="15.110625" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="7.510625" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="21.810625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="12.460625" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="10.320625" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="22.890625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="10.810625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:15">
@@ -648,13 +621,13 @@
     </x:row>
     <x:row r="2" spans="1:15">
       <x:c r="A2" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="2">
-        <x:v>44940</x:v>
+        <x:v>44974</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
         <x:v>16</x:v>
@@ -675,337 +648,292 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="J2" s="3">
-        <x:v>44939.2095024653</x:v>
+        <x:v>44973.2818355787</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="3">
-        <x:v>44939.259598044</x:v>
+        <x:v>44978.2557940625</x:v>
       </x:c>
       <x:c r="M2" s="1" t="s"/>
       <x:c r="N2" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O2" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:15">
       <x:c r="A3" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="2">
-        <x:v>44973</x:v>
+        <x:v>44979</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J3" s="3">
-        <x:v>44972.1039798727</x:v>
+        <x:v>44978.2875022106</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L3" s="3">
-        <x:v>44972.1529856482</x:v>
+        <x:v>44978.2969093403</x:v>
       </x:c>
       <x:c r="M3" s="1" t="s"/>
       <x:c r="N3" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15">
       <x:c r="A4" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="2">
-        <x:v>44973</x:v>
+        <x:v>44979</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J4" s="3">
-        <x:v>44972.1017392014</x:v>
+        <x:v>44978.1824095255</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L4" s="3">
-        <x:v>44972.1531336343</x:v>
-      </x:c>
-      <x:c r="M4" s="1" t="s">
+        <x:v>44978.1913595486</x:v>
+      </x:c>
+      <x:c r="M4" s="1" t="s"/>
+      <x:c r="N4" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="N4" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="O4" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:15">
       <x:c r="A5" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="2">
-        <x:v>44973</x:v>
+        <x:v>44979</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
+      <x:c r="G5" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="G5" s="1" t="s">
+      <x:c r="H5" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J5" s="3">
-        <x:v>44972.0927470139</x:v>
+        <x:v>44978.2902765741</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L5" s="3">
-        <x:v>44972.1531846065</x:v>
+        <x:v>44978.2902765741</x:v>
       </x:c>
       <x:c r="M5" s="1" t="s"/>
       <x:c r="N5" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O5" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:15">
       <x:c r="A6" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="2">
-        <x:v>44942</x:v>
+        <x:v>44976</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J6" s="3">
-        <x:v>44939.2610201273</x:v>
+        <x:v>44973.3086079167</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L6" s="3">
-        <x:v>44972.1870950926</x:v>
+        <x:v>44973.4125251968</x:v>
       </x:c>
       <x:c r="M6" s="1" t="s"/>
       <x:c r="N6" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15">
       <x:c r="A7" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="2">
-        <x:v>45000</x:v>
+        <x:v>44980</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J7" s="3">
-        <x:v>44939.2534835532</x:v>
+        <x:v>44978.2876519444</x:v>
       </x:c>
       <x:c r="K7" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L7" s="3">
-        <x:v>44972.1872499306</x:v>
+        <x:v>44978.2968994907</x:v>
       </x:c>
       <x:c r="M7" s="1" t="s"/>
       <x:c r="N7" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O7" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:15">
       <x:c r="A8" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="2">
-        <x:v>44974</x:v>
+        <x:v>44980</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J8" s="3">
+        <x:v>44978.2169718981</x:v>
+      </x:c>
+      <x:c r="K8" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L8" s="3">
+        <x:v>44978.2557185532</x:v>
+      </x:c>
+      <x:c r="M8" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="N8" s="1" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="H8" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J8" s="3">
-        <x:v>44972.0906821296</x:v>
-      </x:c>
-      <x:c r="K8" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L8" s="3">
-        <x:v>44972.1883543403</x:v>
-      </x:c>
-      <x:c r="M8" s="1" t="s"/>
-      <x:c r="N8" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="O8" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:15">
-      <x:c r="A9" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C9" s="2">
-        <x:v>44974</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J9" s="3">
-        <x:v>44972.3166637731</x:v>
-      </x:c>
-      <x:c r="K9" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="L9" s="3">
-        <x:v>44972.316818287</x:v>
-      </x:c>
-      <x:c r="M9" s="1" t="s"/>
-      <x:c r="N9" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="O9" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FE/Excel/OTs_Table.xlsx
+++ b/FE/Excel/OTs_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -64,103 +64,61 @@
     <x:t>OT</x:t>
   </x:si>
   <x:si>
-    <x:t>13:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lang Khoa Tran</x:t>
-  </x:si>
-  <x:si>
-    <x:t>leader2 vhec</x:t>
+    <x:t>18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accepted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dasfdsafdasf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>leader1 vhec</x:t>
   </x:si>
   <x:si>
     <x:t>Duong Trong Nghia</x:t>
   </x:si>
   <x:si>
-    <x:t>Tran Lang Khoa</x:t>
+    <x:t>thanh dien nguyen tran</x:t>
   </x:si>
   <x:si>
     <x:t>IMS_Test2</x:t>
   </x:si>
   <x:si>
-    <x:t>19:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:30</x:t>
+    <x:t>20:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hello</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cao Van Vinh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyen Tran Thanh Dien</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vo Vien Thien</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:30</x:t>
   </x:si>
   <x:si>
     <x:t>00:30</x:t>
   </x:si>
   <x:si>
-    <x:t>accepted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dasfdasf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>leader1 vhec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0:59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thanh dien nguyen tran</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>process</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dasfdsf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cao Van Vinh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vien Thien Vo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vo Vien Thien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dafdasf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deny</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LGTT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no reason</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Tran Thanh Dien</x:t>
+    <x:t>gdfsgdfsg</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -549,7 +507,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O8"/>
+  <x:dimension ref="A1:O6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -562,12 +520,12 @@
     <x:col min="5" max="5" width="6.650625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.320625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="9.600625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.910625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="12.530625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="12.750625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.170625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.240625" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="15.110625" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="10.320625" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="5.790625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="22.890625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="10.810625" style="0" customWidth="1"/>
   </x:cols>
@@ -621,13 +579,13 @@
     </x:row>
     <x:row r="2" spans="1:15">
       <x:c r="A2" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="2">
-        <x:v>44974</x:v>
+        <x:v>44980</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
         <x:v>16</x:v>
@@ -648,13 +606,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="J2" s="3">
-        <x:v>44973.2818355787</x:v>
+        <x:v>44979.3978657292</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="3">
-        <x:v>44978.2557940625</x:v>
+        <x:v>44979.4093468056</x:v>
       </x:c>
       <x:c r="M2" s="1" t="s"/>
       <x:c r="N2" s="1" t="s">
@@ -666,13 +624,13 @@
     </x:row>
     <x:row r="3" spans="1:15">
       <x:c r="A3" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="2">
-        <x:v>44979</x:v>
+        <x:v>44980</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
         <x:v>25</x:v>
@@ -684,26 +642,26 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J3" s="3">
-        <x:v>44978.2875022106</x:v>
+        <x:v>44979.4313254977</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="L3" s="3">
-        <x:v>44978.2969093403</x:v>
+        <x:v>44979.4337807176</x:v>
       </x:c>
       <x:c r="M3" s="1" t="s"/>
       <x:c r="N3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O3" s="1" t="s">
         <x:v>24</x:v>
@@ -711,44 +669,44 @@
     </x:row>
     <x:row r="4" spans="1:15">
       <x:c r="A4" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="2">
-        <x:v>44979</x:v>
+        <x:v>44980</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H4" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J4" s="3">
-        <x:v>44978.1824095255</x:v>
+        <x:v>44979.4313254977</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="L4" s="3">
-        <x:v>44978.1913595486</x:v>
+        <x:v>44979.4340037037</x:v>
       </x:c>
       <x:c r="M4" s="1" t="s"/>
       <x:c r="N4" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O4" s="1" t="s">
         <x:v>24</x:v>
@@ -756,44 +714,44 @@
     </x:row>
     <x:row r="5" spans="1:15">
       <x:c r="A5" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="2">
-        <x:v>44979</x:v>
+        <x:v>44980</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J5" s="3">
-        <x:v>44978.2902765741</x:v>
+        <x:v>44979.3978657292</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L5" s="3">
-        <x:v>44978.2902765741</x:v>
+        <x:v>44979.4069594444</x:v>
       </x:c>
       <x:c r="M5" s="1" t="s"/>
       <x:c r="N5" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O5" s="1" t="s">
         <x:v>24</x:v>
@@ -801,138 +759,46 @@
     </x:row>
     <x:row r="6" spans="1:15">
       <x:c r="A6" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="2">
-        <x:v>44976</x:v>
+        <x:v>44980</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J6" s="3">
-        <x:v>44973.3086079167</x:v>
+        <x:v>44979.4309327199</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="L6" s="3">
-        <x:v>44973.4125251968</x:v>
+        <x:v>44979.4318824537</x:v>
       </x:c>
       <x:c r="M6" s="1" t="s"/>
       <x:c r="N6" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O6" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:15">
-      <x:c r="A7" s="1" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C7" s="2">
-        <x:v>44980</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J7" s="3">
-        <x:v>44978.2876519444</x:v>
-      </x:c>
-      <x:c r="K7" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L7" s="3">
-        <x:v>44978.2968994907</x:v>
-      </x:c>
-      <x:c r="M7" s="1" t="s"/>
-      <x:c r="N7" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="O7" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:15">
-      <x:c r="A8" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C8" s="2">
-        <x:v>44980</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J8" s="3">
-        <x:v>44978.2169718981</x:v>
-      </x:c>
-      <x:c r="K8" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L8" s="3">
-        <x:v>44978.2557185532</x:v>
-      </x:c>
-      <x:c r="M8" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="N8" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="O8" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
     </x:row>

--- a/FE/Excel/OTs_Table.xlsx
+++ b/FE/Excel/OTs_Table.xlsx
@@ -14,111 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>id</x:t>
   </x:si>
   <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>end</x:t>
-  </x:si>
-  <x:si>
-    <x:t>realTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>leadCreate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dateCreate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updateUser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dateUpdate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>note</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user</x:t>
-  </x:si>
-  <x:si>
-    <x:t>idProject</x:t>
+    <x:t>HinhThucOT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NgayOT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NgayBatDau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NgayKetThuc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThoiGianThucTeOT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TrangThai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MoTa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TruongNhom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NgayTao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NguoiCapNhat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NgayCapNhat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LyDoHuy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NguoiOT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TenDuAn</x:t>
   </x:si>
   <x:si>
     <x:t>OT</x:t>
   </x:si>
   <x:si>
-    <x:t>18:00</x:t>
-  </x:si>
-  <x:si>
     <x:t>19:00</x:t>
   </x:si>
   <x:si>
-    <x:t>1:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accepted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dasfdsafdasf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>leader1 vhec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duong Trong Nghia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>thanh dien nguyen tran</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMS_Test2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cao Van Vinh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nguyen Tran Thanh Dien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vo Vien Thien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gdfsgdfsg</x:t>
+    <x:t>19:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>process</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdsaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đặng Đức Long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Võ Trung Kiên</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMS4</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -507,27 +474,27 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O6"/>
+  <x:dimension ref="A1:O2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.420625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="5.630625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="5.030625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.340625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.890625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="5.800625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="6.650625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.320625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.600625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="12.530625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="12.750625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="16.170625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="18.240625" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="16.170625" style="0" customWidth="1"/>
-    <x:col min="13" max="13" width="5.790625" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="22.890625" style="0" customWidth="1"/>
-    <x:col min="15" max="15" width="10.810625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.370625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.070625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="18.030625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.290625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="6.760625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="14.720625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.050625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.250625" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="13.510625" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="9.420625" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="13.730625" style="0" customWidth="1"/>
+    <x:col min="15" max="15" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:15">
@@ -579,13 +546,13 @@
     </x:row>
     <x:row r="2" spans="1:15">
       <x:c r="A2" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="2">
-        <x:v>44980</x:v>
+        <x:v>45000</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
         <x:v>16</x:v>
@@ -606,200 +573,20 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="J2" s="3">
-        <x:v>44979.3978657292</x:v>
+        <x:v>44986.3461325</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L2" s="3">
-        <x:v>44979.4093468056</x:v>
+        <x:v>44986.3461325</x:v>
       </x:c>
       <x:c r="M2" s="1" t="s"/>
       <x:c r="N2" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:15">
-      <x:c r="A3" s="1" t="n">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="2">
-        <x:v>44980</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J3" s="3">
-        <x:v>44979.4313254977</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L3" s="3">
-        <x:v>44979.4337807176</x:v>
-      </x:c>
-      <x:c r="M3" s="1" t="s"/>
-      <x:c r="N3" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="O3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:15">
-      <x:c r="A4" s="1" t="n">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C4" s="2">
-        <x:v>44980</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J4" s="3">
-        <x:v>44979.4313254977</x:v>
-      </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L4" s="3">
-        <x:v>44979.4340037037</x:v>
-      </x:c>
-      <x:c r="M4" s="1" t="s"/>
-      <x:c r="N4" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O4" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:15">
-      <x:c r="A5" s="1" t="n">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="2">
-        <x:v>44980</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J5" s="3">
-        <x:v>44979.3978657292</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L5" s="3">
-        <x:v>44979.4069594444</x:v>
-      </x:c>
-      <x:c r="M5" s="1" t="s"/>
-      <x:c r="N5" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:15">
-      <x:c r="A6" s="1" t="n">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="2">
-        <x:v>44980</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="J6" s="3">
-        <x:v>44979.4309327199</x:v>
-      </x:c>
-      <x:c r="K6" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L6" s="3">
-        <x:v>44979.4318824537</x:v>
-      </x:c>
-      <x:c r="M6" s="1" t="s"/>
-      <x:c r="N6" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O6" s="1" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/FE/Excel/OTs_Table.xlsx
+++ b/FE/Excel/OTs_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -64,28 +64,40 @@
     <x:t>OT</x:t>
   </x:si>
   <x:si>
+    <x:t>22:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>process</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdasgfsg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đặng Đức Long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hồ Việt Hưng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMS4</x:t>
+  </x:si>
+  <x:si>
     <x:t>19:00</x:t>
   </x:si>
   <x:si>
-    <x:t>19:39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00:39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>process</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fdsaf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Đặng Đức Long</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Võ Trung Kiên</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMS4</x:t>
+    <x:t>20:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đặng Văn Công</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -474,7 +486,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O2"/>
+  <x:dimension ref="A1:O3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -482,18 +494,18 @@
   <x:cols>
     <x:col min="1" max="1" width="5.030625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.340625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.890625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.370625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="13.070625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="18.030625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="10.290625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="6.760625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="8.830625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="14.720625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="14.050625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="14.250625" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="13.510625" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="9.420625" style="0" customWidth="1"/>
-    <x:col min="14" max="14" width="13.730625" style="0" customWidth="1"/>
+    <x:col min="14" max="14" width="14.790625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="9.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -546,13 +558,13 @@
     </x:row>
     <x:row r="2" spans="1:15">
       <x:c r="A2" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="2">
-        <x:v>45000</x:v>
+        <x:v>44993</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
         <x:v>16</x:v>
@@ -573,19 +585,64 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="J2" s="3">
-        <x:v>44986.3461325</x:v>
+        <x:v>44986.3557775694</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="L2" s="3">
-        <x:v>44986.3461325</x:v>
+        <x:v>44986.3726250579</x:v>
       </x:c>
       <x:c r="M2" s="1" t="s"/>
       <x:c r="N2" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:15">
+      <x:c r="A3" s="1" t="n">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="2">
+        <x:v>44986</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J3" s="3">
+        <x:v>44986.3557775694</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L3" s="3">
+        <x:v>44986.3727087268</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="s"/>
+      <x:c r="N3" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O3" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
